--- a/biology/Médecine/Nahmanide/Nahmanide.xlsx
+++ b/biology/Médecine/Nahmanide/Nahmanide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moïse Nahmanide (en hébreu : משה בן נחמן גירונדי Moshe ben Nahman Gerondi, acronyme : רמב"ן Ramban, en catalan : Bonastruc ça Porta, en grec : Moyses Nahmanides[pas clair]) est un rabbin du XIIIe siècle (Gérone, 1194 - Acre, 1270).
 Figure importante du judaïsme, il est contraint de devenir vers la fin de sa vie le représentant des Juifs lors de la disputation de Barcelone. Ses propos ayant été jugés blasphématoires envers le christianisme, il émigre en 1267 en Palestine où s'affrontent alors Croisés et Mamelouks. Il crée à Jérusalem (à l'époque dépendante de la Wilaya de Damas, elle-même sous domination de la dynastie mamalouke bahrites) la synagogue Ramban avant de s'établir à Acre (encore dirigée par les Croisés).
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Issu d'une illustre famille de rabbins, petit-fils d’Isaac ben Reuben de Barcelone, cousin de Rabbenou Yona, il étudie le Talmud sous la férule de Juda ben Yakar et Nathan ben Meïr de Trinquetaille, et est initié à la Kabbale par Azriel de Gérone. 
@@ -554,10 +568,12 @@
           <t>Nahmanide et la Kabbale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nahmanide introduit dans ses écrits des conceptions kabbalistiques, empruntées notamment à son maître Azriel. Nahmanide dispose d'un grand prestige dans les communautés juives de Catalogne et de Castille, alors que l'enseignement de la Kabbale reste encore confidentiel, réservé à un petit cercle de lettrés. « Qu'une autorité religieuse comme Nahmanide ait couvert de son auréole la Kabbale naissante a conféré à cette dernière une renommée sans égale » parmi les Juifs d'Espagne au XIIIe siècle, selon Charles Mopsik[1].
-Toutefois Nahmanide ne fait référence aux conceptions kabbalistiques que de façon voilée, par allusion, sans entrer dans les détails. Emmanuel d'Hooghvorst, qui fut l'un des premiers traducteurs en français de son Introduction au Livre de la Genèse, s'appuie sur un texte de Nahmanide pour démontrer le caractère tangible de la tradition de la kabbale : « Les mots de l'Écriture Sainte n'ont pas été écrits au hasard. Nous devons donc les lire attentivement sans essayer d'en édulcorer le sens. Nous venons de parler, à propos de la première matière, d'une manipulation, source de savoir. C'est au sens littéral qu'il convient d'entendre le dire du cabaliste Nahmanide, dans l'introduction qu'il écrivit à son Commentaire des cinq livres du Pentateuque : " De plus il y a dans nos mains une tradition de vérité [...] " »[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nahmanide introduit dans ses écrits des conceptions kabbalistiques, empruntées notamment à son maître Azriel. Nahmanide dispose d'un grand prestige dans les communautés juives de Catalogne et de Castille, alors que l'enseignement de la Kabbale reste encore confidentiel, réservé à un petit cercle de lettrés. « Qu'une autorité religieuse comme Nahmanide ait couvert de son auréole la Kabbale naissante a conféré à cette dernière une renommée sans égale » parmi les Juifs d'Espagne au XIIIe siècle, selon Charles Mopsik.
+Toutefois Nahmanide ne fait référence aux conceptions kabbalistiques que de façon voilée, par allusion, sans entrer dans les détails. Emmanuel d'Hooghvorst, qui fut l'un des premiers traducteurs en français de son Introduction au Livre de la Genèse, s'appuie sur un texte de Nahmanide pour démontrer le caractère tangible de la tradition de la kabbale : « Les mots de l'Écriture Sainte n'ont pas été écrits au hasard. Nous devons donc les lire attentivement sans essayer d'en édulcorer le sens. Nous venons de parler, à propos de la première matière, d'une manipulation, source de savoir. C'est au sens littéral qu'il convient d'entendre le dire du cabaliste Nahmanide, dans l'introduction qu'il écrivit à son Commentaire des cinq livres du Pentateuque : " De plus il y a dans nos mains une tradition de vérité [...] " »
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Nahmanide et Maïmonide</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nahmanide s'oppose aux conceptions rationalistes de Maïmonide et de son école, qui assimilent, allégoriquement, l'enseignement du Talmud à celui d'Aristote. Nahmanide n'est pas pour autant un anti-rationaliste. Il admire Maïmonide. Mais il défend une autre conception de la pensée juive.
 Pour Nahmanide, la Bible et le Talmud doivent pouvoir se lire littéralement, dans leur sens premier. Il admet que le texte puisse contenir un sens caché, et qu'on puisse en faire une interprétation allégorique ou métaphorique. Mais, selon lui, l'interprétation ne ramène pas nécessairement à la doctrine néo-aristotélicienne que défend Maïmonide. S'il y a un sens caché dans le texte saint, il faut le chercher, non pas au-delà des mots, mais dans des expériences qui renvoient à la doctrine mystique exposée dans la Kabbale, selon Nahmanide. Dieu n'est approchable pour lui que par l'intuition, sûrement pas par la raison.
@@ -624,16 +642,53 @@
           <t>Commentaire de la Torah</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rédigé à Acre, à la fin de sa vie, il s'agit sans conteste de son œuvre la plus célèbre[3]. Ce commentaire a trois buts : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rédigé à Acre, à la fin de sa vie, il s'agit sans conteste de son œuvre la plus célèbre. Ce commentaire a trois buts : 
 Satisfaire les étudiants de la Loi, et leur enjoindre l'analyse critique du texte.
 Justifier les voies de Dieu et découvrir la signification cachée des mots dans les Écritures, « car tous les miracles, tous les mystères sont cachés dans la Torah, et dans ses trésors est contenue toute la beauté de la sagesse ».
 Distraire les étudiants avec des explications simples et des bons mots lorsqu’ils lisent la Parasha de la semaine lors du Shabbat.
 Le commentaire de Nahmanide est remarquable à plus d'un titre. S'il est dit de Rachi qu'il est le plus grand commentateur, d'Ibn Ezra qu'il est le plus sagace, etc., le commentaire de Nahmanide est l'un des plus étudiés actuellement, tant par les tenants de l'« intégrationnisme », qui voient dans sa description de l'œuvre de la création d'étonnants parallèles avec les théories de l'astronomie et de la physique moderne, que par les « téléologistes », qui l'étudient en tant que jalon majeur dans l'exégèse biblique.
 Ce texte, écrit alors qu'il se sent proche de la mort, intègre les trois grands courants du judaïsme médiéval. En effet, Nahamanide a été formé à l'esprit et au qualités des Tossafistes par Juda ben Yakar et Meïr ben Nathan de Trinquetaille ; par son maître Azriel, il a reçu l'enseignement kabbalistique des Juifs de Provence ; et par son environnement, il est rompu à la philosophie judéo-arabe imprégnée par Aristote.
-Principes exégétiques
-Il s’agit d’une méthode analysant le ou les versets dans leur texte, mais aussi dans leur contexte, en puisant aux quatre niveaux d’interprétation de la Torah, qui sont le Pshat (sens simple), le Remez (sens allusif), le Drash (sens allégorique), le Sod (sens secret), en se gardant bien de privilégier l’un d’eux. Si quelqu'un analyse la totalité de la Bible avec ces quatre niveaux d'interprétation, on dit qu'il est arrivé au Pardes, au paradis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nahmanide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Commentaire de la Torah</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principes exégétiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit d’une méthode analysant le ou les versets dans leur texte, mais aussi dans leur contexte, en puisant aux quatre niveaux d’interprétation de la Torah, qui sont le Pshat (sens simple), le Remez (sens allusif), le Drash (sens allégorique), le Sod (sens secret), en se gardant bien de privilégier l’un d’eux. Si quelqu'un analyse la totalité de la Bible avec ces quatre niveaux d'interprétation, on dit qu'il est arrivé au Pardes, au paradis.
 Le commentaire de Nahmanide est à première vue construit comme un sur-commentaire de Rachi, se voulant comme ce dernier une exploration philologique du texte sacré. Cependant, il s'en détache en analysant les versets dans le texte, mais aussi le contexte, et tolère des « incongruités » textuelles sans nécessité de recourir systématiquement au midrash. Ainsi :
 Le passage du singulier au pluriel, et vice-versa, au cours d’un contexte concernant une collectivité, fait partie de la méthode de l’Écriture (דרך הכתוב) et ne requiert pas la recherche de raisons particulières (commentaire sur Genèse 46 :79).
 C’est également la méthode de l’Écriture que de répéter certaines phrases ou paroles, afin d’en souligner l’importance du sujet, ou de reprendre un thème précédent (commentaire sur Exode 4 :9).
@@ -648,31 +703,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nahmanide</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nahmanide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>La dispute de Barcelone, 1263</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors rabbin de Gérone, puis chef spirituel de la communauté juive de Catalogne et ami du roi Jacques Ier d'Aragon, Nahmanide fait office de médiateur à plusieurs reprises entre la couronne et les aljamas (non-chrétiens). En 1263, il est choisi pour une disputatio avec Pablo Christiani en présence du roi, sur l'ordre du dominicain Raymond de Penafort.
 Pablo Christiani, Juif converti au christianisme et devenu frère dominicain, qui défend des inventions telles que la rouelle, est déjà connu pour avoir tenté de convertir la communauté juive de Provence.
@@ -688,47 +745,14 @@
 Pour le « Messie aux portes de Rome » :
 Cela fut également réfuté, car cet enseignement aggadique de Rabbi Josué ben Lévi portait sur la fin des guerres et l'avènement dans l'histoire d'un règne de paix et de justice. Où était-il aujourd'hui ?
 Nahmanide fit aussi remarquer que les questions attenant au Messie avaient moins d'importance pour les Juifs que ce que croyaient les chrétiens. Selon lui, un Juif a en effet plus de mérite à observer les prescriptions divines en terre d'exil, sous le joug chrétien, qu'en Terre promise sous le règne du Messie, où chacun pratiquerait la Loi de façon naturelle.
-La disputatio fut abrégée à la demande pressante des Juifs de Barcelone, qui craignaient d'exciter le ressentiment des dominicains, et se termina sur la victoire de Nahmanide[réf. nécessaire][4], le roi allant jusqu'à lui faire don de 300 maravedis en signe de respect. 
-Cependant, le clergé dominicain prétendit avoir remporté la rencontre. À la demande de l'évèque de Gérone, Nahmanide résume son point de vue dans un texte intitulé Vikuah (polémique)[5]. Le livre de Nahmanide est édité pour la première fois au XVIIe siècle avec une traduction latine par Jean-Christophe Wagenseil dans son ouvrage Tela ignea Satanæ ("les traits de feu de Satan")[6].
+La disputatio fut abrégée à la demande pressante des Juifs de Barcelone, qui craignaient d'exciter le ressentiment des dominicains, et se termina sur la victoire de Nahmanide[réf. nécessaire], le roi allant jusqu'à lui faire don de 300 maravedis en signe de respect. 
+Cependant, le clergé dominicain prétendit avoir remporté la rencontre. À la demande de l'évèque de Gérone, Nahmanide résume son point de vue dans un texte intitulé Vikuah (polémique). Le livre de Nahmanide est édité pour la première fois au XVIIe siècle avec une traduction latine par Jean-Christophe Wagenseil dans son ouvrage Tela ignea Satanæ ("les traits de feu de Satan").
 Le roi fit réunir une commission extraordinaire afin d'assurer l'impartialité du procès, qui se tenait en sa présence. Nahmanide admit avoir porté plusieurs atteintes à la chrétienté, mais n'avoir rien dit d'autre que les arguments prononcés devant le roi, avec jouissance d'une liberté de parole totale.
 Bien que le roi et la commission reconnussent la justesse de sa défense, les dominicains obtinrent que les livres de Nahmanide soient brûlés et qu'il soit exilé pour deux ans, peine qui fut commuée ensuite en bannissement à perpétuité.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nahmanide</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Nahmanide en Israël</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de son séjour de trois ans en Israël, Nahmanide maintient une correspondance avec sa terre natale, au moyen de laquelle il s'efforce de nouer des liens plus étroits entre la Judée et l'Espagne. Peu de temps après son arrivée à Jérusalem, il adresse à son fils Nahman une lettre dans laquelle il décrit la désolation de la ville sainte, où il n'y a plus, selon lui, que deux habitants juifs – deux frères, teinturiers de leur état. 
-Dans une lettre ultérieure écrite à Saint-Jean-d'Acre, et qui est restée comme « l'Épitre du Ramban »[7], il conseille à son fils de cultiver l'humilité, qu'il considère comme la première des vertus. Dans une autre, adressée à son second fils qui occupe une position officielle à la cour de Castille, Nahmanide recommande la récitation de la prière quotidienne, et il le met en garde avant tout contre l'immoralité.
-Nahmanide prône pour les juifs l'obligation d'habiter en terre d'Israël[8]. C'est pour réveiller l'intérêt pour les textes bibliques chez les quelques Juifs qui y habitent que Nahmanide écrit le commentaire sur la Torah (voir ci-dessus). Malgré cela et bien qu'entouré par des amis et des élèves, Nahmanide ressent vivement les douleurs de l'exil : « J'ai quitté ma famille, j'ai renoncé à ma maison. Là, avec mes fils et mes filles, mes chers, mes doux enfants que j'ai élevés sur mes genoux, c'est aussi mon âme que j'ai laissée. Mon cœur et mes yeux habiteront avec eux pour toujours. »
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -750,10 +774,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Nahmanide en Israël</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de son séjour de trois ans en Israël, Nahmanide maintient une correspondance avec sa terre natale, au moyen de laquelle il s'efforce de nouer des liens plus étroits entre la Judée et l'Espagne. Peu de temps après son arrivée à Jérusalem, il adresse à son fils Nahman une lettre dans laquelle il décrit la désolation de la ville sainte, où il n'y a plus, selon lui, que deux habitants juifs – deux frères, teinturiers de leur état. 
+Dans une lettre ultérieure écrite à Saint-Jean-d'Acre, et qui est restée comme « l'Épitre du Ramban », il conseille à son fils de cultiver l'humilité, qu'il considère comme la première des vertus. Dans une autre, adressée à son second fils qui occupe une position officielle à la cour de Castille, Nahmanide recommande la récitation de la prière quotidienne, et il le met en garde avant tout contre l'immoralité.
+Nahmanide prône pour les juifs l'obligation d'habiter en terre d'Israël. C'est pour réveiller l'intérêt pour les textes bibliques chez les quelques Juifs qui y habitent que Nahmanide écrit le commentaire sur la Torah (voir ci-dessus). Malgré cela et bien qu'entouré par des amis et des élèves, Nahmanide ressent vivement les douleurs de l'exil : « J'ai quitté ma famille, j'ai renoncé à ma maison. Là, avec mes fils et mes filles, mes chers, mes doux enfants que j'ai élevés sur mes genoux, c'est aussi mon âme que j'ai laissée. Mon cœur et mes yeux habiteront avec eux pour toujours. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nahmanide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Ses œuvres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Milhamot Hachem ("Les guerres de Dieu", à ne pas confondre avec l'ouvrage homonyme de Gersonide) : commentaire sur le Talmud, d'après le modèle du Rav Isaac Alfasi (le Rif), qu'il défend contre les critiques du Baal HaMaor.
 Sefer ha-Zekhut ou Machaseh ouMagen, où il défend le Rif contre le Rabad ;
@@ -763,7 +824,7 @@
 Torat ha-Adam ("Loi de l'homme"), sur les lois du deuil et de l'inhumation. Le dernier chapitre, "Sha'ar haGuemoul" fait part de considérations eschatologiques, et est souvent réimprimé
 Derashah, sermon prononcé en présence du roi de Castille
 Sefer ha-Ge'ulah ou Sefer Ketz ha-Ge'ulah ("Livre de la Délivrance" ou "de la flèche de la Délivrance"), ouvrage messianique
-Iggeret ha-Musar ("Épître de morale"), adressé à son second fils[9]
+Iggeret ha-Musar ("Épître de morale"), adressé à son second fils
 Iggeret ha-Hemdah, lettre adressée aux rabbins français pour prendre la défense des écrits maïmonidiens
 Vikuah haRamban, récit de la Dispute de Barcelone
 Perush Iyov, commentaire sur Job
@@ -773,31 +834,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nahmanide</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nahmanide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nahmanide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Iggeret ha-Kodesh : la Lettre du « Sacré »</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu’elle lui ait longtemps été attribuée, cette œuvre n’est pas de lui. On suppose cependant qu'elle est indirectement liée à lui, car il semble qu'un de ses élèves l'ait écrite.
 Elle parle du mariage, de la sainteté, et des relations sexuelles. Elle le fait cependant à un degré kabbalistique, et le but est de se parfaire afin de s'unir au niveau spirituel et d’engendrer des « enfants parfaits » qui œuvreront à rapprocher la venue du Messie. Elle égratigne au passage les vues quelque peu sévères et ascétiques de Maïmonide sur la sexualité. Celle-ci est en effet une des fonctions de l'homme, toutes les fonctions du corps de l'homme étant l'œuvre de Dieu. Elle n'a rien de « mauvais » et il n'y a que son utilisation qui peut être bonne ou mauvaise.
